--- a/coordinatedalgorithms.xlsx
+++ b/coordinatedalgorithms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\CoordinatedTrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1C0AD5-5937-4F13-9A63-91CA8AD9575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B24D23-A69E-4A79-AE22-8961BB3AAE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Yöntem</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>52.8 saniye</t>
+  </si>
+  <si>
+    <t>46.6 saniye</t>
   </si>
 </sst>
 </file>
@@ -198,7 +201,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -716,7 +719,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,7 +822,9 @@
       <c r="C5" s="5">
         <v>1078</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>

--- a/coordinatedalgorithms.xlsx
+++ b/coordinatedalgorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\CoordinatedTrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B24D23-A69E-4A79-AE22-8961BB3AAE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DAB6E3-0A0D-4FB9-8F06-52BF50F593AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
@@ -86,7 +86,7 @@
     <t>52.8 saniye</t>
   </si>
   <si>
-    <t>46.6 saniye</t>
+    <t>47.4 saniye</t>
   </si>
 </sst>
 </file>
@@ -719,7 +719,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/coordinatedalgorithms.xlsx
+++ b/coordinatedalgorithms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\CoordinatedTrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DAB6E3-0A0D-4FB9-8F06-52BF50F593AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42E82E0-6502-4B18-BE4B-1C6CD19A67E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Yöntem</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>47.4 saniye</t>
+  </si>
+  <si>
+    <t>Faz atlaması VAR!</t>
+  </si>
+  <si>
+    <t>Faz atlaması YOK!</t>
+  </si>
+  <si>
+    <t>62.1 saniye</t>
+  </si>
+  <si>
+    <t>48.1 saniye</t>
   </si>
 </sst>
 </file>
@@ -205,11 +217,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,13 +370,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>68580</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>274320</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -412,6 +428,68 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="205740" cy="198120"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C606010D-7F9E-4EFA-A7FC-0C6868427ECB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -716,10 +794,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C158390A-6942-4003-A310-601D61940033}">
   <sheetPr codeName="Sayfa1"/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,23 +916,45 @@
       <c r="C6" s="5">
         <v>1078</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7200</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1078</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>7200</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>1078</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -917,6 +1017,28 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>68580</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1046" r:id="rId7" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>68580</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
